--- a/TABLEAU C.xlsx
+++ b/TABLEAU C.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,19 +465,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>391519.654</v>
+        <v>231888.04</v>
       </c>
       <c r="C2" t="n">
-        <v>406909.4050000001</v>
+        <v>243327.85</v>
       </c>
       <c r="D2" t="n">
-        <v>406909.4050000001</v>
+        <v>243327.85</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7343.291524276356</v>
+        <v>4349.261809250211</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +485,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>588886.201</v>
+        <v>439350.069</v>
       </c>
       <c r="C3" t="n">
-        <v>631495.6460000002</v>
+        <v>463425.5670000001</v>
       </c>
       <c r="D3" t="n">
-        <v>631495.6460000002</v>
+        <v>463425.5670000001</v>
       </c>
       <c r="E3" t="n">
         <v>-1.13686837721616e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>10411.77443248446</v>
+        <v>7767.90797195889</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +505,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>524333.0469999999</v>
+        <v>724088.0469999997</v>
       </c>
       <c r="C4" t="n">
-        <v>543708.8949999998</v>
+        <v>743463.8949999996</v>
       </c>
       <c r="D4" t="n">
-        <v>562510.9049999999</v>
+        <v>762265.9049999997</v>
       </c>
       <c r="E4" t="n">
         <v>-18802.01</v>
       </c>
       <c r="F4" t="n">
-        <v>11064.81065270551</v>
+        <v>15280.16817132323</v>
       </c>
     </row>
     <row r="5">
@@ -458,16 +525,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>700172.6600000008</v>
+        <v>773249.6270000011</v>
       </c>
       <c r="C5" t="n">
-        <v>717670.7819999999</v>
+        <v>791884.2299999999</v>
       </c>
       <c r="D5" t="n">
-        <v>788667.8090000001</v>
+        <v>921461.258</v>
       </c>
       <c r="E5" t="n">
-        <v>-70997.02700000002</v>
+        <v>-129577.028</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -478,13 +545,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>115257.02</v>
+        <v>117906.42</v>
       </c>
       <c r="C6" t="n">
-        <v>118144.125</v>
+        <v>120794.725</v>
       </c>
       <c r="D6" t="n">
-        <v>121645.325</v>
+        <v>124295.925</v>
       </c>
       <c r="E6" t="n">
         <v>-3501.200000000001</v>
@@ -600,22 +667,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2320168.582000001</v>
+        <v>2286482.203000001</v>
       </c>
       <c r="C12" t="n">
-        <v>2417928.853</v>
+        <v>2362896.267</v>
       </c>
       <c r="D12" t="n">
-        <v>2511229.090000001</v>
+        <v>2514776.505</v>
       </c>
       <c r="E12" t="n">
-        <v>-93300.23700000001</v>
+        <v>-151880.238</v>
       </c>
       <c r="F12" t="n">
-        <v>28819.87660946633</v>
+        <v>27397.33795253233</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>